--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8DAB5C-DE75-4668-AF22-B69C753D6288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972BD21-849A-4AF5-BAE9-F42ECE98D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -96,19 +96,16 @@
     <t>QuestDesc_12</t>
   </si>
   <si>
-    <t>cu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GuideQuestReward_Gold12500</t>
+  </si>
+  <si>
+    <t>QuestDesc_13</t>
+  </si>
+  <si>
+    <t>QuestDesc_14</t>
+  </si>
+  <si>
+    <t>QuestDesc_15</t>
   </si>
 </sst>
 </file>
@@ -474,7 +471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -582,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>600</v>
@@ -655,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -690,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -698,16 +697,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>424</v>
@@ -725,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -733,34 +732,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>903</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="L8">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -768,22 +767,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>949</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -795,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -803,34 +802,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>482</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="L10">
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -838,22 +837,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>779</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -865,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -873,22 +872,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>555</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -900,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -908,34 +907,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>442</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="L13">
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -943,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>336</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -970,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -978,22 +977,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>309</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1005,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1013,13 +1012,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1028,7 +1027,7 @@
         <v>515</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1040,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1048,25 +1047,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>635</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K17">
         <v>300</v>
@@ -1075,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1083,22 +1082,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>686</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1110,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1118,22 +1117,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>428</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1145,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1153,25 +1152,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>607</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K20">
         <v>12500</v>
@@ -1185,22 +1184,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>358</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -1217,16 +1216,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>470</v>
@@ -1235,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="L22">
         <v>0</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972BD21-849A-4AF5-BAE9-F42ECE98D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D5A41-B5FB-457C-B854-3BE4989BC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -471,9 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -671,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -706,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>424</v>
@@ -951,7 +949,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -986,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <v>309</v>
@@ -1225,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>470</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D5A41-B5FB-457C-B854-3BE4989BC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C9290-4A91-4132-AE7A-7F97DA8A0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -1223,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>470</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C9290-4A91-4132-AE7A-7F97DA8A0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3234E72C-0A53-4EFD-BC05-80565E5C6EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>id|Int</t>
   </si>
@@ -96,9 +96,6 @@
     <t>QuestDesc_12</t>
   </si>
   <si>
-    <t>GuideQuestReward_Gold12500</t>
-  </si>
-  <si>
     <t>QuestDesc_13</t>
   </si>
   <si>
@@ -106,6 +103,18 @@
   </si>
   <si>
     <t>QuestDesc_15</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Energy100</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Gold10000</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Energy50</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -547,13 +558,16 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K2">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -570,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>767</v>
@@ -582,10 +596,13 @@
         <v>14</v>
       </c>
       <c r="K3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -611,13 +628,16 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -646,13 +666,13 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -678,16 +698,16 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -701,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>424</v>
@@ -716,13 +736,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -736,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -748,16 +768,13 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -771,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -786,13 +803,13 @@
         <v>14</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -809,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>482</v>
@@ -821,13 +838,13 @@
         <v>14</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -856,13 +873,13 @@
         <v>14</v>
       </c>
       <c r="K11">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -879,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>555</v>
@@ -888,16 +905,16 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -914,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>442</v>
@@ -926,13 +943,13 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -949,7 +966,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -961,13 +978,13 @@
         <v>14</v>
       </c>
       <c r="K14">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -981,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>309</v>
@@ -996,13 +1013,10 @@
         <v>14</v>
       </c>
       <c r="K15">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1016,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1028,16 +1042,16 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1051,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1066,13 +1080,13 @@
         <v>14</v>
       </c>
       <c r="K17">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1089,7 +1103,7 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>686</v>
@@ -1101,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="K18">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1124,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>428</v>
@@ -1136,13 +1150,13 @@
         <v>14</v>
       </c>
       <c r="K19">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1159,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>607</v>
@@ -1168,10 +1182,10 @@
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K20">
-        <v>12500</v>
+        <v>50</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1191,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>358</v>
@@ -1203,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1223,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>470</v>
@@ -1235,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="K22">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="L22">
         <v>0</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3234E72C-0A53-4EFD-BC05-80565E5C6EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FD76BA-657C-48FC-8138-034CD88A5ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideQuestTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>id|Int</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>GuideQuestReward_Energy50</t>
+  </si>
+  <si>
+    <t>QuestDesc_21</t>
+  </si>
+  <si>
+    <t>QuestDesc_22</t>
+  </si>
+  <si>
+    <t>QuestDesc_23</t>
+  </si>
+  <si>
+    <t>QuestDesc_24</t>
+  </si>
+  <si>
+    <t>QuestDesc_25</t>
   </si>
 </sst>
 </file>
@@ -480,9 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -817,16 +830,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>482</v>
@@ -852,16 +865,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>779</v>
@@ -887,16 +900,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>555</v>
@@ -922,16 +935,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>442</v>
@@ -957,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>4</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FD76BA-657C-48FC-8138-034CD88A5ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FD762-B2E3-4BC9-A4A0-BC86096AF545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
-    <sheet name="GuideQuestTable" sheetId="1" r:id="rId1"/>
+    <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
+    <sheet name="GuideQuestTable" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>id|Int</t>
   </si>
@@ -130,6 +131,114 @@
   </si>
   <si>
     <t>QuestDesc_25</t>
+  </si>
+  <si>
+    <t>type|String</t>
+  </si>
+  <si>
+    <t>nameId|String</t>
+  </si>
+  <si>
+    <t>shortDescriptionId|String</t>
+  </si>
+  <si>
+    <t>needCount|Int!</t>
+  </si>
+  <si>
+    <t>rewardGold|Int!</t>
+  </si>
+  <si>
+    <t>SubQuestName_1</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_1</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_1</t>
+  </si>
+  <si>
+    <t>300, 420, 540, 660, 780, 900</t>
+  </si>
+  <si>
+    <t>1000, 1100, 1200, 1300, 1400, 1500</t>
+  </si>
+  <si>
+    <t>SubQuestName_2</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_2</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_2</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>SubQuestName_3</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_3</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_3</t>
+  </si>
+  <si>
+    <t>15, 21, 27, 33, 39, 45</t>
+  </si>
+  <si>
+    <t>SubQuestName_4</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_4</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_4</t>
+  </si>
+  <si>
+    <t>20, 28, 36, 44, 52, 60</t>
+  </si>
+  <si>
+    <t>SubQuestName_5</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_5</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_5</t>
+  </si>
+  <si>
+    <t>SubQuestName_6</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_6</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_6</t>
+  </si>
+  <si>
+    <t>100, 140, 180, 220, 260, 300</t>
+  </si>
+  <si>
+    <t>SubQuestName_7</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_7</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_7</t>
+  </si>
+  <si>
+    <t>SubQuestName_8</t>
+  </si>
+  <si>
+    <t>SubQuestDesc_8</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_8</t>
+  </si>
+  <si>
+    <t>10, 14, 18, 22, 26, 30</t>
   </si>
 </sst>
 </file>
@@ -492,10 +601,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FD762-B2E3-4BC9-A4A0-BC86096AF545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D0729-9925-4B69-A710-094958ACA79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>id|Int</t>
   </si>
@@ -133,9 +133,6 @@
     <t>QuestDesc_25</t>
   </si>
   <si>
-    <t>type|String</t>
-  </si>
-  <si>
     <t>nameId|String</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>SubQuestName_1</t>
   </si>
   <si>
-    <t>SubQuestDesc_1</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_1</t>
   </si>
   <si>
@@ -163,82 +157,67 @@
     <t>1000, 1100, 1200, 1300, 1400, 1500</t>
   </si>
   <si>
-    <t>SubQuestName_2</t>
-  </si>
-  <si>
-    <t>SubQuestDesc_2</t>
-  </si>
-  <si>
-    <t>SubQuestShortDesc_2</t>
-  </si>
-  <si>
     <t>3, 4, 5, 7, 8, 9</t>
   </si>
   <si>
     <t>SubQuestName_3</t>
   </si>
   <si>
-    <t>SubQuestDesc_3</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_3</t>
   </si>
   <si>
     <t>15, 21, 27, 33, 39, 45</t>
   </si>
   <si>
-    <t>SubQuestName_4</t>
-  </si>
-  <si>
-    <t>SubQuestDesc_4</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_4</t>
   </si>
   <si>
     <t>20, 28, 36, 44, 52, 60</t>
   </si>
   <si>
-    <t>SubQuestName_5</t>
-  </si>
-  <si>
-    <t>SubQuestDesc_5</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_5</t>
   </si>
   <si>
-    <t>SubQuestName_6</t>
-  </si>
-  <si>
-    <t>SubQuestDesc_6</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_6</t>
   </si>
   <si>
     <t>100, 140, 180, 220, 260, 300</t>
   </si>
   <si>
-    <t>SubQuestName_7</t>
-  </si>
-  <si>
-    <t>SubQuestDesc_7</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_7</t>
   </si>
   <si>
-    <t>SubQuestName_8</t>
-  </si>
-  <si>
-    <t>SubQuestDesc_8</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_8</t>
   </si>
   <si>
     <t>10, 14, 18, 22, 26, 30</t>
+  </si>
+  <si>
+    <t>type|Int</t>
+  </si>
+  <si>
+    <t>SubQuestName_11</t>
+  </si>
+  <si>
+    <t>SubQuestName_14</t>
+  </si>
+  <si>
+    <t>SubQuestName_20</t>
+  </si>
+  <si>
+    <t>QuestDesc_20</t>
+  </si>
+  <si>
+    <t>SubQuestName_26</t>
+  </si>
+  <si>
+    <t>QuestDesc_26</t>
+  </si>
+  <si>
+    <t>SubQuestName_30</t>
+  </si>
+  <si>
+    <t>QuestDesc_30</t>
   </si>
 </sst>
 </file>
@@ -602,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -620,22 +599,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -643,104 +622,104 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -749,53 +728,33 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D0729-9925-4B69-A710-094958ACA79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E0B5A-42B2-49D4-AC13-592922B46319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>id|Int</t>
   </si>
@@ -133,91 +133,61 @@
     <t>QuestDesc_25</t>
   </si>
   <si>
-    <t>nameId|String</t>
-  </si>
-  <si>
     <t>shortDescriptionId|String</t>
   </si>
   <si>
     <t>needCount|Int!</t>
   </si>
   <si>
-    <t>rewardGold|Int!</t>
-  </si>
-  <si>
-    <t>SubQuestName_1</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_1</t>
   </si>
   <si>
-    <t>300, 420, 540, 660, 780, 900</t>
-  </si>
-  <si>
-    <t>1000, 1100, 1200, 1300, 1400, 1500</t>
-  </si>
-  <si>
-    <t>3, 4, 5, 7, 8, 9</t>
-  </si>
-  <si>
-    <t>SubQuestName_3</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_3</t>
   </si>
   <si>
-    <t>15, 21, 27, 33, 39, 45</t>
-  </si>
-  <si>
-    <t>SubQuestShortDesc_4</t>
-  </si>
-  <si>
-    <t>20, 28, 36, 44, 52, 60</t>
-  </si>
-  <si>
-    <t>SubQuestShortDesc_5</t>
-  </si>
-  <si>
-    <t>SubQuestShortDesc_6</t>
-  </si>
-  <si>
-    <t>100, 140, 180, 220, 260, 300</t>
-  </si>
-  <si>
-    <t>SubQuestShortDesc_7</t>
-  </si>
-  <si>
-    <t>SubQuestShortDesc_8</t>
-  </si>
-  <si>
-    <t>10, 14, 18, 22, 26, 30</t>
-  </si>
-  <si>
     <t>type|Int</t>
   </si>
   <si>
-    <t>SubQuestName_11</t>
-  </si>
-  <si>
-    <t>SubQuestName_14</t>
-  </si>
-  <si>
-    <t>SubQuestName_20</t>
-  </si>
-  <si>
     <t>QuestDesc_20</t>
   </si>
   <si>
-    <t>SubQuestName_26</t>
-  </si>
-  <si>
     <t>QuestDesc_26</t>
   </si>
   <si>
-    <t>SubQuestName_30</t>
-  </si>
-  <si>
     <t>QuestDesc_30</t>
+  </si>
+  <si>
+    <t>rewardEnergy|Int!</t>
+  </si>
+  <si>
+    <t>10, 20, 50</t>
+  </si>
+  <si>
+    <t>20, 30, 40</t>
+  </si>
+  <si>
+    <t>5, 10, 25</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_11</t>
+  </si>
+  <si>
+    <t>2, 4, 10</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_14</t>
+  </si>
+  <si>
+    <t>1, 2, 5</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_20</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_26</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_30</t>
   </si>
 </sst>
 </file>
@@ -581,180 +551,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E0B5A-42B2-49D4-AC13-592922B46319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78354F5-D8B6-41FD-A676-1C5B88111EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>id|Int</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>SubQuestShortDesc_30</t>
+  </si>
+  <si>
+    <t>QuestDesc_91</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -710,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -768,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>783</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78354F5-D8B6-41FD-A676-1C5B88111EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5518D180-073D-4A20-9576-A44B7A5D90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -808,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>767</v>
@@ -843,16 +843,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>381</v>
@@ -887,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>910</v>
@@ -913,16 +913,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -948,16 +948,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>424</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5518D180-073D-4A20-9576-A44B7A5D90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E241546D-3EDC-4F48-8864-1AEABFB475C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t>id|Int</t>
   </si>
@@ -166,9 +166,6 @@
     <t>20, 30, 40</t>
   </si>
   <si>
-    <t>5, 10, 25</t>
-  </si>
-  <si>
     <t>SubQuestShortDesc_11</t>
   </si>
   <si>
@@ -191,6 +188,12 @@
   </si>
   <si>
     <t>QuestDesc_91</t>
+  </si>
+  <si>
+    <t>30, 60, 150</t>
+  </si>
+  <si>
+    <t>50, 100, 250</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -595,7 +600,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -612,7 +617,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -626,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -643,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -660,10 +665,10 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -677,10 +682,10 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -694,10 +699,10 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -713,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E241546D-3EDC-4F48-8864-1AEABFB475C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93604D-7085-48FA-899F-16E0DE2D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>rewardEnergy|Int!</t>
   </si>
   <si>
-    <t>10, 20, 50</t>
-  </si>
-  <si>
     <t>20, 30, 40</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>50, 100, 250</t>
+  </si>
+  <si>
+    <t>25, 50, 125</t>
   </si>
 </sst>
 </file>
@@ -600,10 +600,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,10 +617,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -631,13 +631,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,13 +648,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,13 +665,13 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,13 +682,13 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,13 +699,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93604D-7085-48FA-899F-16E0DE2D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CF90D-DC41-405F-88BF-DC00824CE67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>id|Int</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>QuestDesc_24</t>
-  </si>
-  <si>
-    <t>QuestDesc_25</t>
   </si>
   <si>
     <t>shortDescriptionId|String</t>
@@ -559,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -574,19 +571,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,13 +594,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -614,13 +611,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -631,13 +628,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,13 +645,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -662,16 +659,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -679,16 +676,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -696,16 +693,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -716,11 +713,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -784,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -813,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>767</v>
@@ -848,16 +843,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>381</v>
@@ -883,16 +878,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>910</v>
@@ -918,16 +913,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -1064,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>482</v>
@@ -1090,16 +1085,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>779</v>
@@ -1125,16 +1120,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>555</v>
@@ -1160,16 +1155,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>442</v>
@@ -1195,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -1230,13 +1225,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1262,16 +1257,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>515</v>
@@ -1297,16 +1292,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>635</v>
@@ -1332,16 +1327,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>686</v>
@@ -1367,16 +1362,16 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>428</v>
@@ -1402,16 +1397,16 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
         <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
       </c>
       <c r="G20">
         <v>607</v>
@@ -1434,16 +1429,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>358</v>
@@ -1466,16 +1461,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
       </c>
       <c r="G22">
         <v>470</v>
@@ -1490,6 +1485,230 @@
         <v>3000</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>315</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>5000</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>364</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>9000</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>7000</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>707</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>6000</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>766</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>8000</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>155</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>7500</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>486</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>8500</v>
+      </c>
+      <c r="L29">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CF90D-DC41-405F-88BF-DC00824CE67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1CB10-C391-4DE1-B12E-FB5B8E555684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="55">
   <si>
     <t>id|Int</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>25, 50, 125</t>
+  </si>
+  <si>
+    <t>QuestDesc_31</t>
+  </si>
+  <si>
+    <t>QuestDesc_19</t>
+  </si>
+  <si>
+    <t>QuestDesc_17</t>
   </si>
 </sst>
 </file>
@@ -713,7 +722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,19 +1438,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>358</v>
+        <v>868</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1450,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="K21">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1461,19 +1470,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>470</v>
+        <v>358</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -1482,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="K22">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1493,19 +1502,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>315</v>
+        <v>470</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1514,7 +1523,7 @@
         <v>14</v>
       </c>
       <c r="K23">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1525,19 +1534,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1546,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="K24">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1557,19 +1566,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>125</v>
+        <v>364</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1578,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="K25">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1589,19 +1598,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>707</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1610,7 +1619,7 @@
         <v>14</v>
       </c>
       <c r="K26">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1621,19 +1630,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
         <v>30</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="G27">
-        <v>766</v>
+        <v>707</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1642,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="K27">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1653,19 +1662,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>155</v>
+        <v>766</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1674,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="K28">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1685,30 +1694,638 @@
         <v>27</v>
       </c>
       <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>7500</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>26</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>486</v>
       </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29">
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30">
         <v>8500</v>
       </c>
-      <c r="L29">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>305</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>3500</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>948</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>2500</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>538</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>3000</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>448</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>5000</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>279</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>9000</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>516</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>7000</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>316</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>6000</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>464</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>8000</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>867</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>7500</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>484</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>8500</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>987</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>3500</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>741</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>2500</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>639</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43">
+        <v>3000</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>852</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44">
+        <v>5000</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>555</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <v>9000</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>465</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>7000</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>328</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>6000</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>130</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <v>8000</v>
+      </c>
+      <c r="L48">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1CB10-C391-4DE1-B12E-FB5B8E555684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ECBC38-9627-45A3-B8CE-89DDC52B81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="60">
   <si>
     <t>id|Int</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>QuestDesc_17</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Cash_sSpellGacha</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Cash_sEquipGacha</t>
+  </si>
+  <si>
+    <t>Cash_sSpellCharacter</t>
   </si>
 </sst>
 </file>
@@ -722,9 +737,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -800,13 +817,13 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -835,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1500</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -861,7 +878,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>381</v>
@@ -870,13 +887,13 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>1700</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -887,16 +904,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>910</v>
@@ -908,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -922,16 +939,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -943,10 +960,10 @@
         <v>23</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -957,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>424</v>
@@ -975,13 +992,13 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>2500</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -992,31 +1009,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1024,34 +1044,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>949</v>
+        <v>198</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1059,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>482</v>
+        <v>903</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1080,13 +1100,10 @@
         <v>14</v>
       </c>
       <c r="K10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1094,31 +1111,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>949</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>779</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <v>2500</v>
-      </c>
       <c r="L11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -1129,19 +1146,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>555</v>
+        <v>482</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1150,10 +1167,10 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="s">
         <v>25</v>
@@ -1164,19 +1181,19 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>442</v>
+        <v>779</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1185,10 +1202,10 @@
         <v>14</v>
       </c>
       <c r="K13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="s">
         <v>25</v>
@@ -1199,31 +1216,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>555</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="G14">
-        <v>336</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>2500</v>
-      </c>
       <c r="L14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
         <v>25</v>
@@ -1234,19 +1251,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>309</v>
+        <v>442</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1255,10 +1272,13 @@
         <v>14</v>
       </c>
       <c r="K15">
-        <v>10000</v>
+        <v>2200</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1266,19 +1286,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
       <c r="G16">
-        <v>515</v>
+        <v>336</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1287,13 +1307,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1301,19 +1321,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>635</v>
+        <v>309</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1322,13 +1342,10 @@
         <v>14</v>
       </c>
       <c r="K17">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1336,19 +1353,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>686</v>
+        <v>515</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -1357,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="K18">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
@@ -1371,31 +1388,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>635</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>428</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19">
-        <v>2000</v>
-      </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="s">
         <v>26</v>
@@ -1406,31 +1423,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
+      <c r="G20">
+        <v>686</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>607</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20">
-        <v>50</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+      <c r="M20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1438,19 +1458,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>868</v>
+        <v>428</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1459,10 +1479,13 @@
         <v>14</v>
       </c>
       <c r="K21">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1470,28 +1493,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>358</v>
+        <v>607</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K22">
-        <v>2500</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1502,28 +1525,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>470</v>
+        <v>868</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K23">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1534,19 +1557,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1555,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="K24">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1566,28 +1589,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>9000</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1598,19 +1621,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1619,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="K26">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1630,19 +1653,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>707</v>
+        <v>364</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1651,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="K27">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1662,28 +1685,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>766</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <v>8000</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1694,19 +1717,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>155</v>
+        <v>707</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1715,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="K29">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1726,28 +1749,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>486</v>
+        <v>766</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K30">
-        <v>8500</v>
+        <v>5</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1758,19 +1781,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1779,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="K31">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1790,19 +1813,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
       <c r="G32">
-        <v>948</v>
+        <v>486</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1811,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="K32">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1822,28 +1845,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="G33">
-        <v>538</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K33">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1854,19 +1877,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>448</v>
+        <v>948</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -1875,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="K34">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -1886,28 +1909,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>279</v>
+        <v>538</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>9000</v>
+        <v>20</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -1918,19 +1941,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -1939,7 +1962,7 @@
         <v>14</v>
       </c>
       <c r="K36">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -1950,28 +1973,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K37">
-        <v>6000</v>
+        <v>5</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -1982,19 +2005,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -2003,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="K38">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2014,28 +2037,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>867</v>
+        <v>316</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K39">
-        <v>7500</v>
+        <v>10</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2046,19 +2069,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -2067,7 +2090,7 @@
         <v>14</v>
       </c>
       <c r="K40">
-        <v>8500</v>
+        <v>600</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2078,28 +2101,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>987</v>
+        <v>867</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>3500</v>
+        <v>5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2110,19 +2133,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>741</v>
+        <v>484</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -2131,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="K42">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2142,19 +2165,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>639</v>
+        <v>987</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -2163,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="K43">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2174,28 +2197,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>852</v>
+        <v>741</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K44">
-        <v>5000</v>
+        <v>12</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2206,19 +2229,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -2227,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="K45">
-        <v>9000</v>
+        <v>2400</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2238,28 +2261,28 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>465</v>
+        <v>852</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K46">
-        <v>7000</v>
+        <v>5</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2270,19 +2293,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>328</v>
+        <v>555</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -2291,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="K47">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2302,30 +2325,894 @@
         <v>46</v>
       </c>
       <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>465</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>328</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>1800</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>30</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
         <v>38</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>130</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48">
-        <v>8000</v>
-      </c>
-      <c r="L48">
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>448</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51">
+        <v>1100</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>710</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>412</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53">
+        <v>800</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>449</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54">
+        <v>1500</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>376</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55">
+        <v>2500</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>741</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>898</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <v>800</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>535</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>550</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>111</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>2000</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>984</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>12</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>168</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>1800</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>662</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63">
+        <v>2000</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>132</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>362</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65">
+        <v>1500</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>955</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66">
+        <v>1300</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>708</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>282</v>
+      </c>
+      <c r="I68" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>26</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>610</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69">
+        <v>900</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>256</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>266</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71">
+        <v>800</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>25</v>
+      </c>
+      <c r="G72">
+        <v>289</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72">
+        <v>1300</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>434</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73">
+        <v>1100</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>475</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>461</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ECBC38-9627-45A3-B8CE-89DDC52B81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438830C-B21D-470A-BFD1-EAECF492D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <t>Cash_sEquipGacha</t>
   </si>
   <si>
-    <t>Cash_sSpellCharacter</t>
+    <t>Cash_sCharacterGacha</t>
   </si>
 </sst>
 </file>
@@ -1653,16 +1653,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>364</v>
@@ -2212,13 +2212,13 @@
         <v>741</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K50">
         <v>4</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438830C-B21D-470A-BFD1-EAECF492D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006AE8FD-1BBB-42B2-B763-8BDC38938ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -1444,7 +1444,7 @@
         <v>57</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L20">
         <v>2</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006AE8FD-1BBB-42B2-B763-8BDC38938ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC17C54-8A31-42F1-86DD-1A6254617664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -2558,7 +2558,7 @@
         <v>37</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>376</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC17C54-8A31-42F1-86DD-1A6254617664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F31094-0D55-40F8-9615-4DCDC7CAE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="62">
   <si>
     <t>id|Int</t>
   </si>
@@ -190,9 +190,6 @@
     <t>50, 100, 250</t>
   </si>
   <si>
-    <t>25, 50, 125</t>
-  </si>
-  <si>
     <t>QuestDesc_31</t>
   </si>
   <si>
@@ -215,6 +212,15 @@
   </si>
   <si>
     <t>Cash_sCharacterGacha</t>
+  </si>
+  <si>
+    <t>75, 150, 375</t>
+  </si>
+  <si>
+    <t>20, 40, 60</t>
+  </si>
+  <si>
+    <t>30, 40, 50</t>
   </si>
 </sst>
 </file>
@@ -580,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,7 +627,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -638,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -675,7 +681,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,7 +732,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1126,10 +1132,10 @@
         <v>949</v>
       </c>
       <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
         <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1403,10 +1409,10 @@
         <v>635</v>
       </c>
       <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
         <v>55</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1441,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
         <v>50</v>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1927,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
         <v>20</v>
@@ -1947,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2119,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -2139,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2212,10 +2218,10 @@
         <v>741</v>
       </c>
       <c r="I44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
         <v>55</v>
-      </c>
-      <c r="J44" t="s">
-        <v>56</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -2404,10 +2410,10 @@
         <v>130</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -2692,10 +2698,10 @@
         <v>550</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -2980,10 +2986,10 @@
         <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -3175,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -3204,10 +3210,10 @@
         <v>461</v>
       </c>
       <c r="I75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K75">
         <v>5</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F31094-0D55-40F8-9615-4DCDC7CAE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBCDD33-1826-4E07-A895-D36E7E7382A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBCDD33-1826-4E07-A895-D36E7E7382A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BE83A-AB7D-4D11-9F34-740971AEBB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{90A4E77E-71DB-49A1-B5D8-E3C955050849}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="2" r:id="rId1"/>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F38E14B-F14F-4709-B1CE-447A72F70C8C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F3CED-ABED-4A96-AD25-4386BFA5FBDD}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1936,7 +1936,7 @@
         <v>56</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L35">
         <v>0</v>
